--- a/test_wikiwho_simple.xlsx
+++ b/test_wikiwho_simple.xlsx
@@ -225,8 +225,7 @@
   </si>
   <si>
     <r>
-      <t>Mankind → Mankind"
-</t>
+      <t>Mankind → Mankind"</t>
     </r>
     <r>
       <rPr>
@@ -234,6 +233,7 @@
         <color rgb="FFFF0066"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>Seems like spliting doesnt work well</t>
     </r>
@@ -611,26 +611,14 @@
     <t>While</t>
   </si>
   <si>
-    <t>name="larke2011"/&gt;  While the same study found "some evidence</t>
+    <t>While the same study found</t>
   </si>
   <si>
     <t>475661433</t>
   </si>
   <si>
-    <r>
-      <t>name="larke2011"/&gt; While the same study found "some evidence →
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>name="larke2011"/&gt;  While the same study found "some evidence
-STILL PROBLAMATIC, cant be found in text</t>
-    </r>
+    <t>name="larke2011"/&gt; While the same study found "some evidence →
+While the same study found</t>
   </si>
   <si>
     <t>cases</t>
@@ -1095,19 +1083,7 @@
     <t>26684473</t>
   </si>
   <si>
-    <r>
-      <t>[[Image:El salvador econ 1980.jpg|thumb|right|300px|E →
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>[[Image:El salvador econ 1980.jpg|thumb|right|300px|Economic</t>
-    </r>
+    <t>[[Image:El salvador econ 1980.jpg|thumb|right|300px|E →[[Image:El salvador econ 1980.jpg|thumb|right|300px|Economic</t>
   </si>
   <si>
     <t>causes</t>
@@ -1298,19 +1274,7 @@
     <t>468898492</t>
   </si>
   <si>
-    <r>
-      <t>|issue=4 |pages=126-7 |pmc=1948865 |journal=Current oncology (Toronto, Ont.) |postscript=.}}&lt;/ref&gt; →
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>issue=4 |pages=126–7 |pmc=1948865 |journal=Current oncology (Toronto, Ont.) |postscript=.}}&lt;/ref&gt;</t>
-    </r>
+    <t>|issue=4 |pages=126-7 |pmc=1948865 |journal=Current oncology (Toronto, Ont.) |postscript=.}}&lt;/ref&gt; →issue=4 |pages=126–7 |pmc=1948865 |journal=Current oncology (Toronto, Ont.) |postscript=.}}&lt;/ref&gt;</t>
   </si>
   <si>
     <t>publisher</t>
@@ -1526,19 +1490,7 @@
     <t>Of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000"</t>
   </si>
   <si>
-    <r>
-      <t>of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000 →
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000"</t>
-    </r>
+    <t>of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000 →Of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000"</t>
   </si>
   <si>
     <t>cartoon by [[John Tenniel]] ({{Nowrap|22 September}}</t>
@@ -1795,6 +1747,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>Seems like spliting doesnt work well
 FAIL, next token has rev id 141764169</t>
@@ -1861,19 +1814,7 @@
     <t>341434668</t>
   </si>
   <si>
-    <r>
-      <t>''Roger's Landing''' for Rogers who founded the settlement → 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'''Roger's Landing''' for Rogers who founded the settlement</t>
-    </r>
+    <t>''Roger's Landing''' for Rogers who founded the settlement →'''Roger's Landing''' for Rogers who founded the settlement</t>
   </si>
   <si>
     <t>[[George Fox University]], and a new campus of [[Portland Community College]]</t>
@@ -1936,19 +1877,8 @@
     <t>478210588</t>
   </si>
   <si>
-    <r>
-      <t>https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|ids|timestamp|sha1|comment|flags|user|userid
+    <t>https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content|ids|timestamp|sha1|comment|flags|user|userid
 This query returns 5 revisions</t>
-    </r>
   </si>
   <si>
     <t>size</t>
@@ -2020,22 +1950,11 @@
     <t>result</t>
   </si>
   <si>
-    <t>3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
-  </si>
-  <si>
-    <r>
-      <t>3Cg&amp;sa=X&amp;oi=book_result&amp;ct= → 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>a9ly90Y3WYyiGAwekMFKnPoGJ1I&amp;hl=en&amp;ei=SJv0SfSOC5GCkQXx1aD3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
-    </r>
+    <t>a9ly90Y3WYyiGAwekMFKnPoGJ1I&amp;hl=en&amp;ei=SJv0SfSOC5GCkQXx1aD3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
+  </si>
+  <si>
+    <t>3Cg&amp;sa=X&amp;oi=book_result&amp;ct= →
+a9ly90Y3WYyiGAwekMFKnPoGJ1I&amp;hl=en&amp;ei=SJv0SfSOC5GCkQXx1aD3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
   </si>
   <si>
     <t>red</t>
@@ -2069,19 +1988,7 @@
     <t>251139604</t>
   </si>
   <si>
-    <r>
-      <t>with Raleigh - he was one of the → 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>he was one of the</t>
-    </r>
+    <t>with Raleigh - he was one of the →he was one of the</t>
   </si>
   <si>
     <t>with</t>
@@ -2258,8 +2165,234 @@
     <t>181667862</t>
   </si>
   <si>
+    <t>[London Waterloo station|Waterloo]] in the centre of London. →[[London Waterloo station|Waterloo]] in the centre of London.</t>
+  </si>
+  <si>
+    <t>{{</t>
+  </si>
+  <si>
+    <t>==References== {{reflist}}</t>
+  </si>
+  <si>
+    <t>392467433</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>Railway]] was also formed and built a line from</t>
+  </si>
+  <si>
+    <t>184072496</t>
+  </si>
+  <si>
+    <t>Basingstoke</t>
+  </si>
+  <si>
+    <t>Reading to Portsmouth via Basingstoke and Alton but the L&amp;SWR found a</t>
+  </si>
+  <si>
+    <t>189287121</t>
+  </si>
+  <si>
+    <t>The majority of passenger services are currently operated by [[South West Trains]]</t>
+  </si>
+  <si>
+    <t>9375284</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>use its own track but, after it fell into financial difficulties,</t>
+  </si>
+  <si>
+    <t>Special Air Service</t>
+  </si>
+  <si>
+    <t>5801</t>
+  </si>
+  <si>
+    <t>572817007</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>squadrons, one [[Free French]], one [[Sacred Band</t>
+  </si>
+  <si>
+    <t>350603320</t>
+  </si>
+  <si>
+    <t>Lewes</t>
+  </si>
+  <si>
+    <t>designed by Lieutenant [[Jock Lewes]] and based on the stylised</t>
+  </si>
+  <si>
+    <t>98628757</t>
+  </si>
+  <si>
+    <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal</t>
+  </si>
+  <si>
+    <t>351942186</t>
+  </si>
+  <si>
+    <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal Signals?|url=h →
+25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal</t>
+  </si>
+  <si>
+    <t>&lt;/</t>
+  </si>
+  <si>
+    <t>| 'B' Squadron&lt;ref&gt;Fremont-Barnes, p.4&lt;/ref&gt;</t>
+  </si>
+  <si>
     <r>
-      <t>[London Waterloo station|Waterloo]] in the centre of London. → 
+      <t>/ → &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Seems like spliting doesnt work well</t>
+    </r>
+  </si>
+  <si>
+    <t>Michael E|title=Encyclopaedia of Elite Forces in the Second World War</t>
+  </si>
+  <si>
+    <t>352362519</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>force to operate behind enemy lines in the [[North African Campaign]]</t>
+  </si>
+  <si>
+    <t>250401991</t>
+  </si>
+  <si>
+    <t>The_Holocaust</t>
+  </si>
+  <si>
+    <t>12323</t>
+  </si>
+  <si>
+    <t>481274320</t>
+  </si>
+  <si>
+    <t>Yad</t>
+  </si>
+  <si>
+    <t>1935|publisher=Yad Vashem}}&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t>137108568</t>
+  </si>
+  <si>
+    <t>1985, Holmes and Meier Publishers, Inc.</t>
+  </si>
+  <si>
+    <t>188536534</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>being set up, under whose rulings over 400,000 people were sterilized against</t>
+  </si>
+  <si>
+    <t>392832255</t>
+  </si>
+  <si>
+    <t>escape was impossible for most of them, they</t>
+  </si>
+  <si>
+    <t>170078762</t>
+  </si>
+  <si>
+    <t>Nazi</t>
+  </si>
+  <si>
+    <t>targeted by various deliberate actions by Nazi Germany and</t>
+  </si>
+  <si>
+    <t>287529321</t>
+  </si>
+  <si>
+    <t>party's</t>
+  </si>
+  <si>
+    <t>the party's racism. Many leaders of German</t>
+  </si>
+  <si>
+    <t>226617182</t>
+  </si>
+  <si>
+    <r>
+      <t>Party → party's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Seems like spliting doesnt work well</t>
+    </r>
+  </si>
+  <si>
+    <t>Toshitsugu_Takamatsu</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>481179988</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>genealogy are also made older than they actually are.</t>
+  </si>
+  <si>
+    <t>460127310</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>(Chosui) Takamatsu, also known as Moko no Tora</t>
+  </si>
+  <si>
+    <t>135003903</t>
+  </si>
+  <si>
+    <t>336776651</t>
+  </si>
+  <si>
+    <r>
+      <t>(Chosui) Takamatsu, also known as Moko no Tora (____ ''Mongolian Tiger'') →
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Chosui) Takamatsu, also known as Moko no Tora
 </t>
     </r>
     <r>
@@ -2269,272 +2402,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>[[London Waterloo station|Waterloo]] in the centre of London.</t>
-    </r>
-  </si>
-  <si>
-    <t>{{</t>
-  </si>
-  <si>
-    <t>==References== {{reflist}}</t>
-  </si>
-  <si>
-    <t>392467433</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>Railway]] was also formed and built a line from</t>
-  </si>
-  <si>
-    <t>184072496</t>
-  </si>
-  <si>
-    <t>Basingstoke</t>
-  </si>
-  <si>
-    <t>Reading to Portsmouth via Basingstoke and Alton but the L&amp;SWR found a</t>
-  </si>
-  <si>
-    <t>189287121</t>
-  </si>
-  <si>
-    <t>The majority of passenger services are currently operated by [[South West Trains]]</t>
-  </si>
-  <si>
-    <t>9375284</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>use its own track but, after it fell into financial difficulties,</t>
-  </si>
-  <si>
-    <t>Special Air Service</t>
-  </si>
-  <si>
-    <t>5801</t>
-  </si>
-  <si>
-    <t>572817007</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>squadrons, one [[Free French]], one [[Sacred Band</t>
-  </si>
-  <si>
-    <t>350603320</t>
-  </si>
-  <si>
-    <t>Lewes</t>
-  </si>
-  <si>
-    <t>designed by Lieutenant [[Jock Lewes]] and based on the stylised</t>
-  </si>
-  <si>
-    <t>98628757</t>
-  </si>
-  <si>
-    <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal Signals?|url=h</t>
-  </si>
-  <si>
-    <t>351942186</t>
-  </si>
-  <si>
-    <r>
-      <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal Signals?|url=h → 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;/</t>
-  </si>
-  <si>
-    <t>| 'B' Squadron&lt;ref&gt;Fremont-Barnes, p.4&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>/ → &lt;/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Seems like spliting doesnt work well</t>
-    </r>
-  </si>
-  <si>
-    <t>Michael E|title=Encyclopaedia of Elite Forces in the Second World War</t>
-  </si>
-  <si>
-    <t>352362519</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>force to operate behind enemy lines in the [[North African Campaign]]</t>
-  </si>
-  <si>
-    <t>250401991</t>
-  </si>
-  <si>
-    <t>The_Holocaust</t>
-  </si>
-  <si>
-    <t>12323</t>
-  </si>
-  <si>
-    <t>481274320</t>
-  </si>
-  <si>
-    <t>Yad</t>
-  </si>
-  <si>
-    <t>1935|publisher=Yad Vashem}}&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>137108568</t>
-  </si>
-  <si>
-    <t>1985, Holmes and Meier Publishers, Inc.</t>
-  </si>
-  <si>
-    <t>188536534</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>being set up, under whose rulings over 400,000 people were sterilized against</t>
-  </si>
-  <si>
-    <t>392832255</t>
-  </si>
-  <si>
-    <t>escape was impossible for most of them, they</t>
-  </si>
-  <si>
-    <t>170078762</t>
-  </si>
-  <si>
-    <t>Nazi</t>
-  </si>
-  <si>
-    <t>targeted by various deliberate actions by Nazi Germany and</t>
-  </si>
-  <si>
-    <t>287529321</t>
-  </si>
-  <si>
-    <t>party's</t>
-  </si>
-  <si>
-    <t>the party's racism. Many leaders of German</t>
-  </si>
-  <si>
-    <t>226617182</t>
-  </si>
-  <si>
-    <r>
-      <t>Party → party's
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Seems like spliting doesnt work well</t>
-    </r>
-  </si>
-  <si>
-    <t>Toshitsugu_Takamatsu</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>481179988</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>genealogy are also made older than they actually are.</t>
-  </si>
-  <si>
-    <t>460127310</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>(Chosui) Takamatsu, also known as Moko no Tora (____ ''Mongolian Tiger'')</t>
-  </si>
-  <si>
-    <t>135003903</t>
-  </si>
-  <si>
-    <t>336776651</t>
-  </si>
-  <si>
-    <r>
-      <t>(Chosui) Takamatsu, also known as Moko no Tora (____ ''Mongolian Tiger'') → 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(Chosui) Takamatsu, also known as Moko no Tora (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-      </rPr>
-      <t>蒙古の虎 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>''Mongolian Tiger'')
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>EXPECTED FAIL</t>
     </r>
   </si>
@@ -2554,159 +2421,146 @@
     <t>467046514</t>
   </si>
   <si>
+    <t>prefecture{{citation needed|date=December 2011} →Prefecture{{citation needed|date=December 2011}}.</t>
+  </si>
+  <si>
+    <t>students. He was the bodyguard</t>
+  </si>
+  <si>
+    <t>139817862</t>
+  </si>
+  <si>
+    <t>Tokyo Times newspaper. He was well known in [[Japan]] as a grandmaster</t>
+  </si>
+  <si>
+    <t>198215859</t>
+  </si>
+  <si>
+    <t>Vladimir_Putin</t>
+  </si>
+  <si>
+    <t>8835</t>
+  </si>
+  <si>
+    <t>481565575</t>
+  </si>
+  <si>
+    <t>They have two daughters, Mariya Putina (born 28 April 1985 in</t>
+  </si>
+  <si>
+    <t>13710123</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>Boris Yeltsin, Putin did not choose ministers himself</t>
+  </si>
+  <si>
+    <t>376922596</t>
+  </si>
+  <si>
+    <t>Russian company [[Gazprom]] to halt its deliveries of [[natural gas]]</t>
+  </si>
+  <si>
+    <t>264976312</t>
+  </si>
+  <si>
+    <t>480200996</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>major infrastructure projects]] which he endorsed have included the construction of several major</t>
+  </si>
+  <si>
+    <t>452270016</t>
+  </si>
+  <si>
+    <t>[[Vladimir Gusinsky]], [[Mikhail Khodorkovsky</t>
+  </si>
+  <si>
+    <t>ports of the [[Baltic states]].</t>
+  </si>
+  <si>
+    <t>Wernher_von_Braun</t>
+  </si>
+  <si>
+    <t>2886</t>
+  </si>
+  <si>
+    <t>481374609</t>
+  </si>
+  <si>
+    <t>deceleration intended to commence only a few hundred kilometers above</t>
+  </si>
+  <si>
+    <t>331257357</t>
+  </si>
+  <si>
+    <t>glacial</t>
+  </si>
+  <si>
+    <t>the barren Antarctic terrain like the glacial dry valleys to test the equipment</t>
+  </si>
+  <si>
+    <t>181562429</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>Von Braun continued his work to the extent possible, which included</t>
+  </si>
+  <si>
+    <t>312133982</t>
+  </si>
+  <si>
+    <t>picked labor slaves from the [[Buchenwald concentration camp]], who, he admitted 25 years</t>
+  </si>
+  <si>
+    <t>39337246</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>with unmistakable harshness that I should mind my own business, or find myself</t>
+  </si>
+  <si>
+    <t>60940361</t>
+  </si>
+  <si>
+    <t>=Merk, Otto|title=The Birth of the Missile:The Secrets of Peenemünde</t>
+  </si>
+  <si>
+    <t>278165210</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>(τέκτων in Greek), usually understood to mean [[carpenter]].</t>
+  </si>
+  <si>
+    <t>78808950</t>
+  </si>
+  <si>
+    <t>DISPUTED!</t>
+  </si>
+  <si>
+    <t>sensationalised</t>
+  </si>
+  <si>
+    <t>event at first suppressed, then sensationalised, by the world media</t>
+  </si>
+  <si>
+    <t>46525</t>
+  </si>
+  <si>
     <r>
-      <t>prefecture{{citation needed|date=December 2011} → 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Prefecture{{citation needed|date=December 2011}}.</t>
-    </r>
-  </si>
-  <si>
-    <t>students. He was the bodyguard</t>
-  </si>
-  <si>
-    <t>139817862</t>
-  </si>
-  <si>
-    <t>Tokyo Times newspaper. He was well known in [[Japan]] as a grandmaster</t>
-  </si>
-  <si>
-    <t>198215859</t>
-  </si>
-  <si>
-    <t>Vladimir_Putin</t>
-  </si>
-  <si>
-    <t>8835</t>
-  </si>
-  <si>
-    <t>481565575</t>
-  </si>
-  <si>
-    <t>They have two daughters, Mariya Putina (born 28 April 1985 in</t>
-  </si>
-  <si>
-    <t>13710123</t>
-  </si>
-  <si>
-    <t>did</t>
-  </si>
-  <si>
-    <t>Boris Yeltsin, Putin did not choose ministers himself</t>
-  </si>
-  <si>
-    <t>376922596</t>
-  </si>
-  <si>
-    <t>Russian company [[Gazprom]] to halt its deliveries of [[natural gas]]</t>
-  </si>
-  <si>
-    <t>264976312</t>
-  </si>
-  <si>
-    <t>480200996</t>
-  </si>
-  <si>
-    <t>included</t>
-  </si>
-  <si>
-    <t>major infrastructure projects]] which he endorsed have included the construction of several major</t>
-  </si>
-  <si>
-    <t>452270016</t>
-  </si>
-  <si>
-    <t>[[Vladimir Gusinsky]], [[Mikhail Khodorkovsky</t>
-  </si>
-  <si>
-    <t>ports of the [[Baltic states]].</t>
-  </si>
-  <si>
-    <t>Wernher_von_Braun</t>
-  </si>
-  <si>
-    <t>2886</t>
-  </si>
-  <si>
-    <t>481374609</t>
-  </si>
-  <si>
-    <t>deceleration intended to commence only a few hundred kilometers above</t>
-  </si>
-  <si>
-    <t>331257357</t>
-  </si>
-  <si>
-    <t>glacial</t>
-  </si>
-  <si>
-    <t>the barren Antarctic terrain like the glacial dry valleys to test the equipment</t>
-  </si>
-  <si>
-    <t>181562429</t>
-  </si>
-  <si>
-    <t>extent</t>
-  </si>
-  <si>
-    <t>Von Braun continued his work to the extent possible, which included</t>
-  </si>
-  <si>
-    <t>312133982</t>
-  </si>
-  <si>
-    <t>picked labor slaves from the [[Buchenwald concentration camp]], who, he admitted 25 years</t>
-  </si>
-  <si>
-    <t>39337246</t>
-  </si>
-  <si>
-    <t>should</t>
-  </si>
-  <si>
-    <t>with unmistakable harshness that I should mind my own business, or find myself</t>
-  </si>
-  <si>
-    <t>60940361</t>
-  </si>
-  <si>
-    <t>=Merk, Otto|title=The Birth of the Missile:The Secrets of Peenemünde</t>
-  </si>
-  <si>
-    <t>278165210</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>(τέκτων in Greek), usually understood to mean [[carpenter]].</t>
-  </si>
-  <si>
-    <t>78808950</t>
-  </si>
-  <si>
-    <t>DISPUTED!</t>
-  </si>
-  <si>
-    <t>sensationalised</t>
-  </si>
-  <si>
-    <t>event at first suppressed, then sensationalised, by the world media</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <r>
-      <t>DISPUTED!
-</t>
+      <t>DISPUTED!</t>
     </r>
     <r>
       <rPr>
@@ -2714,6 +2568,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>FAIL</t>
     </r>
@@ -2745,7 +2600,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2769,18 +2624,27 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0066"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0066"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF99CC"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2800,12 +2664,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2813,14 +2671,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0066"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2846,7 +2697,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2890,9 +2741,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2903,7 +2758,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2915,27 +2770,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2948,18 +2803,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2975,16 +2838,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2999,20 +2882,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3051,7 +2934,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -3067,7 +2950,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF9999"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -3098,8 +2981,8 @@
   </sheetPr>
   <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K159" activeCellId="0" sqref="K159"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I82" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3112,8 +2995,8 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8061224489796"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4642857142857"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.015306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.015306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.2295918367347"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="150.811224489796"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
@@ -3143,10 +3026,10 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
@@ -3157,10 +3040,10 @@
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -3169,13 +3052,13 @@
       <c r="E2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3183,10 +3066,10 @@
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -3195,16 +3078,16 @@
       <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3212,10 +3095,10 @@
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -3224,16 +3107,16 @@
       <c r="E4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3241,25 +3124,25 @@
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3267,10 +3150,10 @@
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -3279,13 +3162,13 @@
       <c r="E6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3293,10 +3176,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -3305,13 +3188,13 @@
       <c r="E7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3319,10 +3202,10 @@
       <c r="A8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -3331,13 +3214,13 @@
       <c r="E8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3345,25 +3228,25 @@
       <c r="A9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3371,10 +3254,10 @@
       <c r="A10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -3383,13 +3266,13 @@
       <c r="E10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3397,28 +3280,28 @@
       <c r="A11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3426,10 +3309,10 @@
       <c r="A12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -3438,13 +3321,13 @@
       <c r="E12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3452,10 +3335,10 @@
       <c r="A13" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -3464,13 +3347,13 @@
       <c r="E13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3478,10 +3361,10 @@
       <c r="A14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -3490,13 +3373,13 @@
       <c r="E14" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3504,10 +3387,10 @@
       <c r="A15" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -3516,39 +3399,39 @@
       <c r="E15" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="7"/>
@@ -3561,10 +3444,10 @@
       <c r="A17" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -3573,13 +3456,13 @@
       <c r="E17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3587,10 +3470,10 @@
       <c r="A18" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
@@ -3599,13 +3482,13 @@
       <c r="E18" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3613,10 +3496,10 @@
       <c r="A19" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
@@ -3625,13 +3508,13 @@
       <c r="E19" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3639,10 +3522,10 @@
       <c r="A20" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="0" t="s">
@@ -3651,13 +3534,13 @@
       <c r="E20" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3665,10 +3548,10 @@
       <c r="A21" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="0" t="s">
@@ -3677,13 +3560,13 @@
       <c r="E21" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3691,10 +3574,10 @@
       <c r="A22" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="0" t="s">
@@ -3703,13 +3586,13 @@
       <c r="E22" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3717,10 +3600,10 @@
       <c r="A23" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="0" t="s">
@@ -3729,13 +3612,13 @@
       <c r="E23" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3743,10 +3626,10 @@
       <c r="A24" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="0" t="s">
@@ -3755,13 +3638,13 @@
       <c r="E24" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3790,10 +3673,10 @@
       <c r="H25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>97</v>
       </c>
       <c r="K25" s="9" t="s">
@@ -3804,10 +3687,10 @@
       <c r="A26" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -3816,13 +3699,13 @@
       <c r="E26" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3830,10 +3713,10 @@
       <c r="A27" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -3842,13 +3725,13 @@
       <c r="E27" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3856,10 +3739,10 @@
       <c r="A28" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -3868,13 +3751,13 @@
       <c r="E28" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3882,10 +3765,10 @@
       <c r="A29" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -3894,13 +3777,13 @@
       <c r="E29" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3908,10 +3791,10 @@
       <c r="A30" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -3920,13 +3803,13 @@
       <c r="E30" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3955,10 +3838,10 @@
       <c r="H31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="I31" s="12" t="n">
         <v>336848732</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>119</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -3969,10 +3852,10 @@
       <c r="A32" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D32" s="0" t="s">
@@ -3981,13 +3864,13 @@
       <c r="E32" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3995,10 +3878,10 @@
       <c r="A33" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -4007,13 +3890,13 @@
       <c r="E33" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4021,10 +3904,10 @@
       <c r="A34" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -4033,13 +3916,13 @@
       <c r="E34" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4047,10 +3930,10 @@
       <c r="A35" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D35" s="0" t="s">
@@ -4059,13 +3942,13 @@
       <c r="E35" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4073,25 +3956,25 @@
       <c r="A36" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4099,10 +3982,10 @@
       <c r="A37" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -4111,13 +3994,13 @@
       <c r="E37" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4125,10 +4008,10 @@
       <c r="A38" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D38" s="0" t="s">
@@ -4137,13 +4020,13 @@
       <c r="E38" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4151,25 +4034,25 @@
       <c r="A39" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4177,10 +4060,10 @@
       <c r="A40" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D40" s="0" t="s">
@@ -4189,13 +4072,13 @@
       <c r="E40" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4203,10 +4086,10 @@
       <c r="A41" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D41" s="0" t="s">
@@ -4215,48 +4098,48 @@
       <c r="E41" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="H41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="14" t="n">
+      <c r="I42" s="15" t="n">
         <v>90766018</v>
       </c>
-      <c r="J42" s="12" t="n">
+      <c r="J42" s="16" t="n">
         <v>90766018</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4264,10 +4147,10 @@
       <c r="A43" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D43" s="0" t="s">
@@ -4276,83 +4159,83 @@
       <c r="E43" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I44" s="14" t="n">
+      <c r="I44" s="15" t="n">
         <v>519480465</v>
       </c>
-      <c r="J44" s="12" t="n">
+      <c r="J44" s="16" t="n">
         <v>519480465</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+    <row r="45" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I45" s="14" t="n">
+      <c r="I45" s="15" t="n">
         <v>304072381</v>
       </c>
-      <c r="J45" s="12" t="n">
+      <c r="J45" s="16" t="n">
         <v>304072381</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4360,10 +4243,10 @@
       <c r="A46" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -4372,13 +4255,13 @@
       <c r="E46" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4386,10 +4269,10 @@
       <c r="A47" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D47" s="0" t="s">
@@ -4398,13 +4281,13 @@
       <c r="E47" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4412,10 +4295,10 @@
       <c r="A48" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D48" s="0" t="s">
@@ -4424,13 +4307,13 @@
       <c r="E48" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4438,58 +4321,58 @@
       <c r="A49" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="H49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="12" t="n">
-        <v>113050209</v>
-      </c>
-      <c r="K50" s="12" t="s">
+      <c r="I50" s="17"/>
+      <c r="J50" s="16" t="n">
+        <v>111643507</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4497,10 +4380,10 @@
       <c r="A51" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D51" s="0" t="s">
@@ -4509,42 +4392,43 @@
       <c r="E51" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="16" t="s">
+      <c r="H52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4552,10 +4436,10 @@
       <c r="A53" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D53" s="0" t="s">
@@ -4564,13 +4448,13 @@
       <c r="E53" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4578,10 +4462,10 @@
       <c r="A54" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D54" s="0" t="s">
@@ -4590,13 +4474,13 @@
       <c r="E54" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4604,10 +4488,10 @@
       <c r="A55" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D55" s="0" t="s">
@@ -4616,13 +4500,13 @@
       <c r="E55" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4630,10 +4514,10 @@
       <c r="A56" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D56" s="0" t="s">
@@ -4642,13 +4526,13 @@
       <c r="E56" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4656,10 +4540,10 @@
       <c r="A57" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D57" s="0" t="s">
@@ -4668,13 +4552,13 @@
       <c r="E57" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4682,10 +4566,10 @@
       <c r="A58" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D58" s="0" t="s">
@@ -4694,13 +4578,13 @@
       <c r="E58" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4708,10 +4592,10 @@
       <c r="A59" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D59" s="0" t="s">
@@ -4720,13 +4604,13 @@
       <c r="E59" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4734,10 +4618,10 @@
       <c r="A60" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D60" s="0" t="s">
@@ -4746,13 +4630,13 @@
       <c r="E60" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4760,10 +4644,10 @@
       <c r="A61" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D61" s="0" t="s">
@@ -4772,13 +4656,13 @@
       <c r="E61" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4786,10 +4670,10 @@
       <c r="A62" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D62" s="0" t="s">
@@ -4798,13 +4682,13 @@
       <c r="E62" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4812,10 +4696,10 @@
       <c r="A63" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D63" s="0" t="s">
@@ -4824,13 +4708,13 @@
       <c r="E63" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4838,10 +4722,10 @@
       <c r="A64" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D64" s="0" t="s">
@@ -4850,13 +4734,13 @@
       <c r="E64" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4864,10 +4748,10 @@
       <c r="A65" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D65" s="0" t="s">
@@ -4876,46 +4760,46 @@
       <c r="E65" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
+      <c r="H65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="12" t="n">
+      <c r="I66" s="17"/>
+      <c r="J66" s="16" t="n">
         <v>101938292</v>
       </c>
-      <c r="K66" s="12" t="s">
+      <c r="K66" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4923,10 +4807,10 @@
       <c r="A67" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D67" s="0" t="s">
@@ -4935,13 +4819,13 @@
       <c r="E67" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4949,10 +4833,10 @@
       <c r="A68" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D68" s="0" t="s">
@@ -4961,13 +4845,13 @@
       <c r="E68" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4975,10 +4859,10 @@
       <c r="A69" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D69" s="0" t="s">
@@ -4987,13 +4871,13 @@
       <c r="E69" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5001,10 +4885,10 @@
       <c r="A70" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D70" s="0" t="s">
@@ -5013,13 +4897,13 @@
       <c r="E70" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5027,10 +4911,10 @@
       <c r="A71" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D71" s="0" t="s">
@@ -5039,13 +4923,13 @@
       <c r="E71" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5053,10 +4937,10 @@
       <c r="A72" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D72" s="0" t="s">
@@ -5065,13 +4949,13 @@
       <c r="E72" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5079,10 +4963,10 @@
       <c r="A73" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D73" s="0" t="s">
@@ -5091,13 +4975,13 @@
       <c r="E73" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5105,10 +4989,10 @@
       <c r="A74" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D74" s="0" t="s">
@@ -5117,13 +5001,13 @@
       <c r="E74" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5131,10 +5015,10 @@
       <c r="A75" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D75" s="0" t="s">
@@ -5143,13 +5027,13 @@
       <c r="E75" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5157,10 +5041,10 @@
       <c r="A76" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D76" s="0" t="s">
@@ -5169,13 +5053,13 @@
       <c r="E76" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5183,25 +5067,25 @@
       <c r="A77" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="20" t="s">
         <v>281</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5209,10 +5093,10 @@
       <c r="A78" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D78" s="0" t="s">
@@ -5221,13 +5105,13 @@
       <c r="E78" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5235,10 +5119,10 @@
       <c r="A79" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D79" s="0" t="s">
@@ -5247,13 +5131,13 @@
       <c r="E79" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5261,10 +5145,10 @@
       <c r="A80" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D80" s="0" t="s">
@@ -5273,13 +5157,13 @@
       <c r="E80" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5287,10 +5171,10 @@
       <c r="A81" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D81" s="0" t="s">
@@ -5299,13 +5183,13 @@
       <c r="E81" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5313,10 +5197,10 @@
       <c r="A82" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D82" s="0" t="s">
@@ -5325,13 +5209,13 @@
       <c r="E82" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5339,10 +5223,10 @@
       <c r="A83" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D83" s="0" t="s">
@@ -5351,45 +5235,45 @@
       <c r="E83" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18" t="s">
+      <c r="H83" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" s="21" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="F84" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="9" t="n">
+      <c r="H84" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="24" t="n">
         <v>199685857</v>
       </c>
-      <c r="J84" s="9" t="n">
+      <c r="J84" s="24" t="n">
         <v>199685857</v>
       </c>
       <c r="K84" s="9" t="s">
@@ -5400,10 +5284,10 @@
       <c r="A85" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D85" s="0" t="s">
@@ -5412,13 +5296,13 @@
       <c r="E85" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5426,10 +5310,10 @@
       <c r="A86" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D86" s="0" t="s">
@@ -5438,13 +5322,13 @@
       <c r="E86" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5452,10 +5336,10 @@
       <c r="A87" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D87" s="0" t="s">
@@ -5464,13 +5348,13 @@
       <c r="E87" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5478,10 +5362,10 @@
       <c r="A88" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D88" s="0" t="s">
@@ -5490,13 +5374,13 @@
       <c r="E88" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5504,25 +5388,25 @@
       <c r="A89" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5530,10 +5414,10 @@
       <c r="A90" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D90" s="0" t="s">
@@ -5542,13 +5426,13 @@
       <c r="E90" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5556,10 +5440,10 @@
       <c r="A91" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D91" s="0" t="s">
@@ -5568,13 +5452,13 @@
       <c r="E91" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5582,10 +5466,10 @@
       <c r="A92" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D92" s="0" t="s">
@@ -5594,13 +5478,13 @@
       <c r="E92" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5608,10 +5492,10 @@
       <c r="A93" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D93" s="0" t="s">
@@ -5620,13 +5504,13 @@
       <c r="E93" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5634,10 +5518,10 @@
       <c r="A94" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D94" s="0" t="s">
@@ -5646,43 +5530,43 @@
       <c r="E94" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="2"/>
-      <c r="K95" s="16" t="s">
+      <c r="H95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="25"/>
+      <c r="K95" s="3" t="s">
         <v>339</v>
       </c>
     </row>
@@ -5690,10 +5574,10 @@
       <c r="A96" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D96" s="0" t="s">
@@ -5702,13 +5586,13 @@
       <c r="E96" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5716,10 +5600,10 @@
       <c r="A97" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D97" s="0" t="s">
@@ -5728,13 +5612,13 @@
       <c r="E97" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5742,10 +5626,10 @@
       <c r="A98" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D98" s="0" t="s">
@@ -5754,13 +5638,13 @@
       <c r="E98" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5768,10 +5652,10 @@
       <c r="A99" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D99" s="0" t="s">
@@ -5780,13 +5664,13 @@
       <c r="E99" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5794,10 +5678,10 @@
       <c r="A100" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D100" s="0" t="s">
@@ -5806,13 +5690,13 @@
       <c r="E100" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5820,10 +5704,10 @@
       <c r="A101" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D101" s="0" t="s">
@@ -5832,13 +5716,13 @@
       <c r="E101" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5846,10 +5730,10 @@
       <c r="A102" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D102" s="0" t="s">
@@ -5858,13 +5742,13 @@
       <c r="E102" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5872,10 +5756,10 @@
       <c r="A103" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D103" s="0" t="s">
@@ -5884,13 +5768,13 @@
       <c r="E103" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5898,10 +5782,10 @@
       <c r="A104" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D104" s="0" t="s">
@@ -5910,13 +5794,13 @@
       <c r="E104" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5924,10 +5808,10 @@
       <c r="A105" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D105" s="0" t="s">
@@ -5936,13 +5820,13 @@
       <c r="E105" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5950,10 +5834,10 @@
       <c r="A106" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D106" s="0" t="s">
@@ -5962,13 +5846,13 @@
       <c r="E106" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5976,10 +5860,10 @@
       <c r="A107" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D107" s="0" t="s">
@@ -5988,13 +5872,13 @@
       <c r="E107" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6002,10 +5886,10 @@
       <c r="A108" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D108" s="0" t="s">
@@ -6014,13 +5898,13 @@
       <c r="E108" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6028,10 +5912,10 @@
       <c r="A109" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D109" s="0" t="s">
@@ -6040,13 +5924,13 @@
       <c r="E109" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6054,10 +5938,10 @@
       <c r="A110" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D110" s="0" t="s">
@@ -6066,13 +5950,13 @@
       <c r="E110" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6080,10 +5964,10 @@
       <c r="A111" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D111" s="0" t="s">
@@ -6092,39 +5976,39 @@
       <c r="E111" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6132,10 +6016,10 @@
       <c r="A113" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D113" s="0" t="s">
@@ -6144,13 +6028,13 @@
       <c r="E113" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6158,54 +6042,54 @@
       <c r="A114" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" s="16" t="s">
+      <c r="H114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6213,10 +6097,10 @@
       <c r="A116" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D116" s="0" t="s">
@@ -6225,105 +6109,105 @@
       <c r="E116" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="s">
+      <c r="H116" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="G117" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="H117" s="13" t="s">
+      <c r="H117" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I117" s="15"/>
-      <c r="J117" s="12" t="n">
+      <c r="I117" s="17"/>
+      <c r="J117" s="16" t="n">
         <v>162158071</v>
       </c>
-      <c r="K117" s="15" t="s">
+      <c r="K117" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="s">
+      <c r="H118" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E119" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="G119" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H119" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I119" s="15"/>
-      <c r="J119" s="12" t="n">
+      <c r="I119" s="17"/>
+      <c r="J119" s="16" t="n">
         <v>334589457</v>
       </c>
-      <c r="K119" s="22" t="s">
+      <c r="K119" s="26" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6331,10 +6215,10 @@
       <c r="A120" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D120" s="0" t="s">
@@ -6343,13 +6227,13 @@
       <c r="E120" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6357,10 +6241,10 @@
       <c r="A121" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D121" s="0" t="s">
@@ -6369,13 +6253,13 @@
       <c r="E121" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H121" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6383,10 +6267,10 @@
       <c r="A122" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D122" s="0" t="s">
@@ -6395,13 +6279,13 @@
       <c r="E122" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H122" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6409,25 +6293,25 @@
       <c r="A123" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>431</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6435,10 +6319,10 @@
       <c r="A124" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D124" s="0" t="s">
@@ -6447,13 +6331,13 @@
       <c r="E124" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6461,10 +6345,10 @@
       <c r="A125" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D125" s="0" t="s">
@@ -6473,13 +6357,13 @@
       <c r="E125" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6487,28 +6371,28 @@
       <c r="A126" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K126" s="16" t="s">
+      <c r="H126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="3" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6516,10 +6400,10 @@
       <c r="A127" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="0" t="s">
@@ -6528,13 +6412,13 @@
       <c r="E127" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6542,10 +6426,10 @@
       <c r="A128" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D128" s="0" t="s">
@@ -6554,13 +6438,13 @@
       <c r="E128" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6568,10 +6452,10 @@
       <c r="A129" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D129" s="0" t="s">
@@ -6580,13 +6464,13 @@
       <c r="E129" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H129" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6594,10 +6478,10 @@
       <c r="A130" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D130" s="0" t="s">
@@ -6606,13 +6490,13 @@
       <c r="E130" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H130" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6620,28 +6504,28 @@
       <c r="A131" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K131" s="16" t="s">
+      <c r="H131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6649,10 +6533,10 @@
       <c r="A132" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D132" s="0" t="s">
@@ -6661,75 +6545,75 @@
       <c r="E132" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="s">
+      <c r="H132" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D133" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E133" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="F133" s="13" t="s">
+      <c r="F133" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="G133" s="13" t="s">
+      <c r="G133" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="H133" s="13" t="s">
+      <c r="H133" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I133" s="15"/>
-      <c r="J133" s="12" t="n">
+      <c r="I133" s="17"/>
+      <c r="J133" s="16" t="n">
         <v>48586264</v>
       </c>
-      <c r="K133" s="22" t="s">
+      <c r="K133" s="26" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K134" s="16" t="s">
+      <c r="H134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" s="3" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6737,10 +6621,10 @@
       <c r="A135" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D135" s="0" t="s">
@@ -6749,13 +6633,13 @@
       <c r="E135" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6763,10 +6647,10 @@
       <c r="A136" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D136" s="0" t="s">
@@ -6775,13 +6659,13 @@
       <c r="E136" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="H136" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6789,10 +6673,10 @@
       <c r="A137" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D137" s="0" t="s">
@@ -6801,13 +6685,13 @@
       <c r="E137" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="H137" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6815,10 +6699,10 @@
       <c r="A138" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D138" s="0" t="s">
@@ -6827,13 +6711,13 @@
       <c r="E138" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="H138" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6841,25 +6725,25 @@
       <c r="A139" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>482</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H139" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6867,10 +6751,10 @@
       <c r="A140" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D140" s="0" t="s">
@@ -6879,24 +6763,24 @@
       <c r="E140" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H140" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D141" s="0" t="s">
@@ -6905,13 +6789,13 @@
       <c r="E141" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="H141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K141" s="0" t="s">
@@ -6919,13 +6803,13 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D142" s="0" t="s">
@@ -6934,24 +6818,24 @@
       <c r="E142" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="H142" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D143" s="0" t="s">
@@ -6960,24 +6844,24 @@
       <c r="E143" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="H143" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D144" s="0" t="s">
@@ -6986,24 +6870,24 @@
       <c r="E144" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H144" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D145" s="0" t="s">
@@ -7012,42 +6896,42 @@
       <c r="E145" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K146" s="16" t="s">
+      <c r="H146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="3" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7055,10 +6939,10 @@
       <c r="A147" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D147" s="0" t="s">
@@ -7067,13 +6951,13 @@
       <c r="E147" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7081,10 +6965,10 @@
       <c r="A148" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D148" s="0" t="s">
@@ -7093,13 +6977,13 @@
       <c r="E148" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7107,10 +6991,10 @@
       <c r="A149" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D149" s="0" t="s">
@@ -7119,13 +7003,13 @@
       <c r="E149" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H149" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7133,10 +7017,10 @@
       <c r="A150" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D150" s="0" t="s">
@@ -7145,13 +7029,13 @@
       <c r="E150" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7159,10 +7043,10 @@
       <c r="A151" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D151" s="0" t="s">
@@ -7171,13 +7055,13 @@
       <c r="E151" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="H151" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7185,10 +7069,10 @@
       <c r="A152" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D152" s="0" t="s">
@@ -7197,13 +7081,13 @@
       <c r="E152" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H152" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7211,10 +7095,10 @@
       <c r="A153" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D153" s="0" t="s">
@@ -7223,13 +7107,13 @@
       <c r="E153" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7237,10 +7121,10 @@
       <c r="A154" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D154" s="0" t="s">
@@ -7249,13 +7133,13 @@
       <c r="E154" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7263,10 +7147,10 @@
       <c r="A155" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D155" s="0" t="s">
@@ -7275,13 +7159,13 @@
       <c r="E155" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="H155" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7289,10 +7173,10 @@
       <c r="A156" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D156" s="0" t="s">
@@ -7301,13 +7185,13 @@
       <c r="E156" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H156" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7315,10 +7199,10 @@
       <c r="A157" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D157" s="0" t="s">
@@ -7327,13 +7211,13 @@
       <c r="E157" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7341,10 +7225,10 @@
       <c r="A158" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D158" s="0" t="s">
@@ -7353,48 +7237,48 @@
       <c r="E158" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" s="18" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="18" t="s">
+      <c r="H158" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" s="21" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="F159" s="19" t="s">
+      <c r="F159" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="G159" s="19" t="s">
+      <c r="G159" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="H159" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I159" s="18" t="n">
+      <c r="H159" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="27" t="n">
         <v>117479325</v>
       </c>
-      <c r="J159" s="18" t="n">
+      <c r="J159" s="27" t="n">
         <v>117479325</v>
       </c>
-      <c r="K159" s="20" t="s">
+      <c r="K159" s="23" t="s">
         <v>552</v>
       </c>
     </row>
@@ -7402,10 +7286,10 @@
       <c r="A160" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>548</v>
       </c>
       <c r="D160" s="0" t="s">
@@ -7414,13 +7298,13 @@
       <c r="E160" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H160" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7428,10 +7312,10 @@
       <c r="A161" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>548</v>
       </c>
       <c r="D161" s="0" t="s">
@@ -7440,13 +7324,13 @@
       <c r="E161" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H161" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7454,10 +7338,10 @@
       <c r="A162" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>548</v>
       </c>
       <c r="D162" s="0" t="s">
@@ -7466,13 +7350,13 @@
       <c r="E162" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="H162" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7480,10 +7364,10 @@
       <c r="A163" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>548</v>
       </c>
       <c r="D163" s="0" t="s">
@@ -7492,13 +7376,13 @@
       <c r="E163" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H163" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7506,10 +7390,10 @@
       <c r="A164" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>548</v>
       </c>
       <c r="D164" s="0" t="s">
@@ -7518,42 +7402,42 @@
       <c r="E164" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H164" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K165" s="16" t="s">
+      <c r="H165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" s="3" t="s">
         <v>573</v>
       </c>
     </row>
@@ -7561,10 +7445,10 @@
       <c r="A166" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D166" s="0" t="s">
@@ -7573,13 +7457,13 @@
       <c r="E166" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="H166" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7587,10 +7471,10 @@
       <c r="A167" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D167" s="0" t="s">
@@ -7599,13 +7483,13 @@
       <c r="E167" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H167" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7613,10 +7497,10 @@
       <c r="A168" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D168" s="0" t="s">
@@ -7625,13 +7509,13 @@
       <c r="E168" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H168" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7639,10 +7523,10 @@
       <c r="A169" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D169" s="0" t="s">
@@ -7651,13 +7535,13 @@
       <c r="E169" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H169" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7665,10 +7549,10 @@
       <c r="A170" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D170" s="0" t="s">
@@ -7677,193 +7561,199 @@
       <c r="E170" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
+      <c r="H170" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="G171" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="H171" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I171" s="7"/>
-      <c r="K171" s="7" t="s">
+      <c r="J171" s="28"/>
+      <c r="K171" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="172" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="s">
+    <row r="172" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="G172" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H172" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I172" s="7"/>
-      <c r="K172" s="23" t="s">
+      <c r="J172" s="28"/>
+      <c r="K172" s="29" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="173" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="s">
+    <row r="173" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="G173" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="H173" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I173" s="7"/>
-      <c r="K173" s="7" t="s">
+      <c r="J173" s="7"/>
+      <c r="K173" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="s">
+    <row r="174" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="G174" s="5" t="s">
+      <c r="G174" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="H174" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I174" s="7"/>
-      <c r="K174" s="7" t="s">
+      <c r="J174" s="7"/>
+      <c r="K174" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="175" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="s">
+    <row r="175" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G175" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H175" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I175" s="7"/>
-      <c r="K175" s="7" t="s">
+      <c r="J175" s="7"/>
+      <c r="K175" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="176" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="s">
+    <row r="176" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="G176" s="5" t="s">
+      <c r="G176" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="H176" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I176" s="7"/>
-      <c r="K176" s="7" t="s">
+      <c r="J176" s="7"/>
+      <c r="K176" s="5" t="s">
         <v>591</v>
       </c>
     </row>
@@ -7871,10 +7761,10 @@
       <c r="A177" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>606</v>
       </c>
       <c r="D177" s="0" t="s">
@@ -7883,13 +7773,13 @@
       <c r="E177" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G177" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="H177" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7897,10 +7787,10 @@
       <c r="A178" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>606</v>
       </c>
       <c r="D178" s="0" t="s">
@@ -7909,13 +7799,13 @@
       <c r="E178" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="H178" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7923,25 +7813,25 @@
       <c r="A179" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>611</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F179" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G179" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="H179" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7949,10 +7839,10 @@
       <c r="A180" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>606</v>
       </c>
       <c r="D180" s="0" t="s">
@@ -7961,13 +7851,13 @@
       <c r="E180" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F180" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="H180" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7975,72 +7865,73 @@
       <c r="A181" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>606</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="E181" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K181" s="16" t="s">
+      <c r="H181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="31"/>
+      <c r="K181" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="182" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="24" t="s">
+    <row r="182" s="32" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="D182" s="24" t="s">
+      <c r="D182" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="F182" s="25" t="s">
+      <c r="F182" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="G182" s="25" t="s">
+      <c r="G182" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="H182" s="25" t="s">
+      <c r="H182" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="I182" s="25" t="s">
+      <c r="I182" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="J182" s="25" t="s">
+      <c r="J182" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="K182" s="27"/>
-    </row>
-    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K182" s="36"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>626</v>
       </c>
       <c r="D183" s="0" t="s">
@@ -8049,16 +7940,16 @@
       <c r="E183" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F183" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K183" s="16" t="s">
+      <c r="H183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" s="3" t="s">
         <v>630</v>
       </c>
     </row>
@@ -8066,10 +7957,10 @@
       <c r="A184" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>626</v>
       </c>
       <c r="D184" s="0" t="s">
@@ -8078,13 +7969,13 @@
       <c r="E184" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F184" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="H184" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8092,10 +7983,10 @@
       <c r="A185" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>626</v>
       </c>
       <c r="D185" s="0" t="s">
@@ -8104,13 +7995,13 @@
       <c r="E185" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F185" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H185" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8118,10 +8009,10 @@
       <c r="A186" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>626</v>
       </c>
       <c r="D186" s="0" t="s">
@@ -8130,16 +8021,16 @@
       <c r="E186" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F186" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G186" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="H186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" s="3" t="s">
         <v>636</v>
       </c>
     </row>
@@ -8147,10 +8038,10 @@
       <c r="A187" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>626</v>
       </c>
       <c r="D187" s="0" t="s">
@@ -8159,16 +8050,16 @@
       <c r="E187" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="F187" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G187" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K187" s="16" t="s">
+      <c r="H187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K187" s="3" t="s">
         <v>638</v>
       </c>
     </row>
@@ -8176,10 +8067,10 @@
       <c r="A188" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>626</v>
       </c>
       <c r="D188" s="0" t="s">
@@ -8188,13 +8079,13 @@
       <c r="E188" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="F188" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G188" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="H188" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8202,10 +8093,10 @@
       <c r="A189" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>644</v>
       </c>
       <c r="D189" s="0" t="s">
@@ -8214,13 +8105,13 @@
       <c r="E189" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="F189" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G189" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="H189" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8228,10 +8119,10 @@
       <c r="A190" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>644</v>
       </c>
       <c r="D190" s="0" t="s">
@@ -8240,39 +8131,39 @@
       <c r="E190" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="F190" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H190" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>644</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="F191" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G191" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="H191" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8280,10 +8171,10 @@
       <c r="A192" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>644</v>
       </c>
       <c r="D192" s="0" t="s">
@@ -8292,13 +8183,13 @@
       <c r="E192" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F192" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G192" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="H192" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8306,10 +8197,10 @@
       <c r="A193" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>644</v>
       </c>
       <c r="D193" s="0" t="s">
@@ -8318,41 +8209,43 @@
       <c r="E193" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F193" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G193" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="194" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="s">
+      <c r="H193" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" s="5" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E194" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F194" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="H194" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H194" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
       <c r="K194" s="8" t="s">
         <v>660</v>
       </c>
@@ -8361,10 +8254,10 @@
       <c r="A195" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>663</v>
       </c>
       <c r="D195" s="0" t="s">
@@ -8373,13 +8266,13 @@
       <c r="E195" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F195" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="H195" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8387,10 +8280,10 @@
       <c r="A196" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>663</v>
       </c>
       <c r="D196" s="0" t="s">
@@ -8399,13 +8292,13 @@
       <c r="E196" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F196" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="H196" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8413,10 +8306,10 @@
       <c r="A197" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>663</v>
       </c>
       <c r="D197" s="0" t="s">
@@ -8425,13 +8318,13 @@
       <c r="E197" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="F197" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="H197" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8439,10 +8332,10 @@
       <c r="A198" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>663</v>
       </c>
       <c r="D198" s="0" t="s">
@@ -8451,57 +8344,57 @@
       <c r="E198" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F198" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="24" t="s">
+      <c r="H198" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="B199" s="25" t="s">
+      <c r="B199" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="32" t="s">
         <v>559</v>
       </c>
-      <c r="E199" s="24" t="s">
+      <c r="E199" s="32" t="s">
         <v>676</v>
       </c>
-      <c r="F199" s="25" t="s">
+      <c r="F199" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="G199" s="25" t="s">
+      <c r="G199" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="H199" s="25" t="s">
+      <c r="H199" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="I199" s="25" t="s">
+      <c r="I199" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="J199" s="25" t="s">
+      <c r="J199" s="35" t="s">
         <v>672</v>
       </c>
-      <c r="K199" s="27"/>
+      <c r="K199" s="36"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>663</v>
       </c>
       <c r="D200" s="0" t="s">
@@ -8510,42 +8403,42 @@
       <c r="E200" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="F200" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G200" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>681</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="F201" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G201" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K201" s="16" t="s">
+      <c r="H201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" s="3" t="s">
         <v>684</v>
       </c>
     </row>
@@ -8553,10 +8446,10 @@
       <c r="A202" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>681</v>
       </c>
       <c r="D202" s="0" t="s">
@@ -8565,13 +8458,13 @@
       <c r="E202" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="F202" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G202" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="H202" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8579,10 +8472,10 @@
       <c r="A203" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>681</v>
       </c>
       <c r="D203" s="0" t="s">
@@ -8591,13 +8484,13 @@
       <c r="E203" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="F203" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G203" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="H203" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8605,10 +8498,10 @@
       <c r="A204" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>681</v>
       </c>
       <c r="D204" s="0" t="s">
@@ -8617,13 +8510,13 @@
       <c r="E204" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="F204" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="G204" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="H204" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8631,10 +8524,10 @@
       <c r="A205" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>681</v>
       </c>
       <c r="D205" s="0" t="s">
@@ -8643,13 +8536,13 @@
       <c r="E205" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="F205" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G205" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="H205" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8657,10 +8550,10 @@
       <c r="A206" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>681</v>
       </c>
       <c r="D206" s="0" t="s">
@@ -8669,13 +8562,13 @@
       <c r="E206" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="F206" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="G206" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="H206" s="1" t="s">
+      <c r="H206" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8683,10 +8576,10 @@
       <c r="A207" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>700</v>
       </c>
       <c r="D207" s="0" t="s">
@@ -8695,13 +8588,13 @@
       <c r="E207" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="F207" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G207" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="H207" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8709,10 +8602,10 @@
       <c r="A208" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>700</v>
       </c>
       <c r="D208" s="0" t="s">
@@ -8721,13 +8614,13 @@
       <c r="E208" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="F208" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G208" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="H208" s="1" t="s">
+      <c r="H208" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8735,56 +8628,59 @@
       <c r="A209" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>700</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="E209" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="F209" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="G209" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K209" s="16" t="s">
+      <c r="H209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209" s="31"/>
+      <c r="K209" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="210" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="s">
+    <row r="210" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="D210" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="E210" s="4" t="s">
+      <c r="E210" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="G210" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="H210" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H210" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I210" s="28"/>
+      <c r="J210" s="28"/>
       <c r="K210" s="8" t="s">
         <v>712</v>
       </c>
@@ -8793,10 +8689,10 @@
       <c r="A211" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>700</v>
       </c>
       <c r="D211" s="0" t="s">
@@ -8805,25 +8701,25 @@
       <c r="E211" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="F211" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K211" s="28"/>
+      <c r="H211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="37"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>700</v>
       </c>
       <c r="D212" s="0" t="s">
@@ -8832,13 +8728,13 @@
       <c r="E212" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F212" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="H212" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8846,10 +8742,10 @@
       <c r="A213" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>720</v>
       </c>
       <c r="D213" s="0" t="s">
@@ -8858,13 +8754,13 @@
       <c r="E213" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="H213" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8872,10 +8768,10 @@
       <c r="A214" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>720</v>
       </c>
       <c r="D214" s="0" t="s">
@@ -8884,13 +8780,13 @@
       <c r="E214" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="F214" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="H214" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8898,10 +8794,10 @@
       <c r="A215" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>720</v>
       </c>
       <c r="D215" s="0" t="s">
@@ -8910,13 +8806,13 @@
       <c r="E215" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="F215" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="H215" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8924,10 +8820,10 @@
       <c r="A216" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>720</v>
       </c>
       <c r="D216" s="0" t="s">
@@ -8936,13 +8832,13 @@
       <c r="E216" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="F216" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="H216" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8950,10 +8846,10 @@
       <c r="A217" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>720</v>
       </c>
       <c r="D217" s="0" t="s">
@@ -8962,42 +8858,44 @@
       <c r="E217" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F217" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="H217" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="218" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="4" t="s">
+      <c r="H217" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D218" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="E218" s="4" t="s">
+      <c r="E218" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="G218" s="5" t="s">
+      <c r="G218" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="H218" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K218" s="29" t="s">
+      <c r="H218" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" s="28"/>
+      <c r="J218" s="28"/>
+      <c r="K218" s="8" t="s">
         <v>737</v>
       </c>
     </row>
@@ -9005,10 +8903,10 @@
       <c r="A219" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>740</v>
       </c>
       <c r="D219" s="0" t="s">
@@ -9017,45 +8915,46 @@
       <c r="E219" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="F219" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="220" s="12" customFormat="true" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12" t="s">
+      <c r="H219" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B220" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C220" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="D220" s="12" t="s">
+      <c r="D220" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="E220" s="12" t="s">
+      <c r="E220" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="F220" s="13" t="s">
+      <c r="F220" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="G220" s="13" t="s">
+      <c r="G220" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="H220" s="13" t="s">
+      <c r="H220" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="J220" s="30" t="n">
+      <c r="I220" s="16"/>
+      <c r="J220" s="16" t="n">
         <v>336776651</v>
       </c>
-      <c r="K220" s="22" t="s">
+      <c r="K220" s="26" t="s">
         <v>748</v>
       </c>
     </row>
@@ -9063,10 +8962,10 @@
       <c r="A221" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>740</v>
       </c>
       <c r="D221" s="0" t="s">
@@ -9075,42 +8974,42 @@
       <c r="E221" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F221" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G221" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H221" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>740</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E222" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F222" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G222" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K222" s="16" t="s">
+      <c r="H222" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K222" s="3" t="s">
         <v>754</v>
       </c>
     </row>
@@ -9118,10 +9017,10 @@
       <c r="A223" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>740</v>
       </c>
       <c r="D223" s="0" t="s">
@@ -9130,13 +9029,13 @@
       <c r="E223" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F223" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="H223" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9144,10 +9043,10 @@
       <c r="A224" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>740</v>
       </c>
       <c r="D224" s="0" t="s">
@@ -9156,13 +9055,13 @@
       <c r="E224" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F224" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="H224" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9170,10 +9069,10 @@
       <c r="A225" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>761</v>
       </c>
       <c r="D225" s="0" t="s">
@@ -9182,13 +9081,13 @@
       <c r="E225" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F225" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="H225" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9196,10 +9095,10 @@
       <c r="A226" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>761</v>
       </c>
       <c r="D226" s="0" t="s">
@@ -9208,45 +9107,46 @@
       <c r="E226" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="F226" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="G226" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="227" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12" t="s">
+      <c r="H226" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B227" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="C227" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="D227" s="12" t="s">
+      <c r="D227" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E227" s="12" t="s">
+      <c r="E227" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="F227" s="13" t="s">
+      <c r="F227" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="G227" s="13" t="s">
+      <c r="G227" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="H227" s="13" t="s">
+      <c r="H227" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="J227" s="30" t="n">
+      <c r="I227" s="16"/>
+      <c r="J227" s="17" t="n">
         <v>480200996</v>
       </c>
-      <c r="K227" s="22" t="s">
+      <c r="K227" s="26" t="s">
         <v>157</v>
       </c>
     </row>
@@ -9254,10 +9154,10 @@
       <c r="A228" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>761</v>
       </c>
       <c r="D228" s="0" t="s">
@@ -9266,13 +9166,13 @@
       <c r="E228" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="F228" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G228" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="H228" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9280,10 +9180,10 @@
       <c r="A229" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>761</v>
       </c>
       <c r="D229" s="0" t="s">
@@ -9292,13 +9192,13 @@
       <c r="E229" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="F229" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G229" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="H229" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9306,10 +9206,10 @@
       <c r="A230" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>761</v>
       </c>
       <c r="D230" s="0" t="s">
@@ -9318,13 +9218,13 @@
       <c r="E230" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F230" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="H230" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9332,10 +9232,10 @@
       <c r="A231" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>777</v>
       </c>
       <c r="D231" s="0" t="s">
@@ -9344,13 +9244,13 @@
       <c r="E231" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="F231" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G231" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="H231" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9358,10 +9258,10 @@
       <c r="A232" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>777</v>
       </c>
       <c r="D232" s="0" t="s">
@@ -9370,13 +9270,13 @@
       <c r="E232" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="F232" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G232" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="H232" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9384,10 +9284,10 @@
       <c r="A233" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>777</v>
       </c>
       <c r="D233" s="0" t="s">
@@ -9396,13 +9296,13 @@
       <c r="E233" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F233" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G233" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="H233" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9410,10 +9310,10 @@
       <c r="A234" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="2" t="s">
         <v>777</v>
       </c>
       <c r="D234" s="0" t="s">
@@ -9422,13 +9322,13 @@
       <c r="E234" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="F234" s="1" t="s">
+      <c r="F234" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="H234" s="1" t="s">
+      <c r="H234" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9436,10 +9336,10 @@
       <c r="A235" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="2" t="s">
         <v>777</v>
       </c>
       <c r="D235" s="0" t="s">
@@ -9448,13 +9348,13 @@
       <c r="E235" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F235" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="G235" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="H235" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9462,10 +9362,10 @@
       <c r="A236" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="2" t="s">
         <v>777</v>
       </c>
       <c r="D236" s="0" t="s">
@@ -9474,13 +9374,13 @@
       <c r="E236" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="F236" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="G236" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="H236" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9488,10 +9388,10 @@
       <c r="A237" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D237" s="0" t="s">
@@ -9500,51 +9400,51 @@
       <c r="E237" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F237" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="G237" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="H237" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K237" s="0" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="238" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="18" t="s">
+    <row r="238" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="B238" s="19" t="s">
+      <c r="B238" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C238" s="19" t="s">
+      <c r="C238" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D238" s="18" t="s">
+      <c r="D238" s="21" t="s">
         <v>797</v>
       </c>
-      <c r="E238" s="18" t="s">
+      <c r="E238" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="F238" s="19" t="s">
+      <c r="F238" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="G238" s="19" t="s">
+      <c r="G238" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="H238" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I238" s="31" t="n">
+      <c r="H238" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="39" t="n">
         <v>274782</v>
       </c>
-      <c r="J238" s="31" t="n">
+      <c r="J238" s="39" t="n">
         <v>274782</v>
       </c>
-      <c r="K238" s="20" t="s">
+      <c r="K238" s="23" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9552,10 +9452,10 @@
       <c r="A239" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D239" s="0" t="s">
@@ -9564,13 +9464,13 @@
       <c r="E239" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="F239" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G239" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="H239" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K239" s="0" t="s">
@@ -9581,10 +9481,10 @@
       <c r="A240" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D240" s="0" t="s">
@@ -9593,13 +9493,13 @@
       <c r="E240" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="F240" s="1" t="s">
+      <c r="F240" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G240" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="H240" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K240" s="0" t="s">
@@ -9608,7 +9508,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K172" r:id="rId1" display="https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content"/>
+    <hyperlink ref="K172" r:id="rId1" display="https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content|ids|timestamp|sha1|comment|flags|user|userid&#10;This query returns 5 revisions"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test_wikiwho_simple.xlsx
+++ b/test_wikiwho_simple.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="803">
   <si>
     <t>Article</t>
   </si>
@@ -960,21 +960,6 @@
     <t>199684622</t>
   </si>
   <si>
-    <r>
-      <t>FAIL *!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>reason could be that correct rev id is wrongly selected. e.g here 'kingdom', 'of', 'norway' they all have rev_id as 199685857</t>
-    </r>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
@@ -1738,8 +1723,7 @@
   </si>
   <si>
     <r>
-      <t>/ → /&gt;
-</t>
+      <t>/ → /&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1850,7 +1834,7 @@
     <t>499684</t>
   </si>
   <si>
-    <t>Race and Intelligence</t>
+    <t>Race_and_intelligence</t>
   </si>
   <si>
     <t>11041</t>
@@ -1868,17 +1852,10 @@
     <t>409787246</t>
   </si>
   <si>
-    <t>"Revision ID does not exist or is spam or deleted!"</t>
-  </si>
-  <si>
     <t>|date=12 February 2005</t>
   </si>
   <si>
     <t>478210588</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content|ids|timestamp|sha1|comment|flags|user|userid
-This query returns 5 revisions</t>
   </si>
   <si>
     <t>size</t>
@@ -2081,8 +2058,7 @@
   </si>
   <si>
     <r>
-      <t>Base → base"
-</t>
+      <t>Base → base"</t>
     </r>
     <r>
       <rPr>
@@ -2382,28 +2358,7 @@
     <t>336776651</t>
   </si>
   <si>
-    <r>
-      <t>(Chosui) Takamatsu, also known as Moko no Tora (____ ''Mongolian Tiger'') →
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Chosui) Takamatsu, also known as Moko no Tora
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>EXPECTED FAIL</t>
-    </r>
+    <t>(Chosui) Takamatsu, also known as Moko no Tora (____ ''Mongolian Tiger'') →(Chosui) Takamatsu, also known as Moko no ToraEXPECTED FAIL</t>
   </si>
   <si>
     <t>historical</t>
@@ -2557,21 +2512,6 @@
   </si>
   <si>
     <t>46525</t>
-  </si>
-  <si>
-    <r>
-      <t>DISPUTED!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>FAIL</t>
-    </r>
   </si>
   <si>
     <t>west</t>
@@ -2600,7 +2540,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2638,12 +2578,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF99CC"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2657,22 +2591,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2741,7 +2663,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2814,15 +2736,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2858,16 +2780,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2894,12 +2812,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2979,10 +2893,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K240"/>
+  <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I82" activeCellId="0" sqref="I:I"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K170" activeCellId="0" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3061,6 +2975,8 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3087,6 +3003,8 @@
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
@@ -3116,6 +3034,8 @@
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
@@ -3145,6 +3065,8 @@
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3171,6 +3093,8 @@
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3197,6 +3121,8 @@
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3223,6 +3149,8 @@
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3249,6 +3177,8 @@
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3275,6 +3205,8 @@
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3301,6 +3233,8 @@
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
       <c r="K11" s="3" t="s">
         <v>49</v>
       </c>
@@ -3330,6 +3264,8 @@
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -3356,6 +3292,8 @@
       <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -3382,6 +3320,8 @@
       <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -3408,6 +3348,8 @@
       <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -3465,6 +3407,8 @@
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3491,6 +3435,8 @@
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3517,6 +3463,8 @@
       <c r="H19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3543,6 +3491,8 @@
       <c r="H20" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3569,6 +3519,8 @@
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3595,6 +3547,8 @@
       <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3621,6 +3575,8 @@
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -3647,6 +3603,8 @@
       <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
     </row>
     <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
@@ -3708,6 +3666,8 @@
       <c r="H26" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3734,6 +3694,8 @@
       <c r="H27" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -3760,6 +3722,8 @@
       <c r="H28" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -3786,6 +3750,8 @@
       <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -3812,6 +3778,8 @@
       <c r="H30" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
     </row>
     <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
@@ -3873,6 +3841,8 @@
       <c r="H32" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -3899,6 +3869,8 @@
       <c r="H33" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -3925,6 +3897,8 @@
       <c r="H34" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -3951,6 +3925,8 @@
       <c r="H35" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -3977,6 +3953,8 @@
       <c r="H36" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -4003,6 +3981,8 @@
       <c r="H37" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -4029,6 +4009,8 @@
       <c r="H38" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -4055,6 +4037,8 @@
       <c r="H39" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -4081,6 +4065,8 @@
       <c r="H40" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -4107,6 +4093,8 @@
       <c r="H41" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
     </row>
     <row r="42" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
@@ -4168,6 +4156,8 @@
       <c r="H43" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
     </row>
     <row r="44" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
@@ -4264,6 +4254,8 @@
       <c r="H46" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -4290,6 +4282,8 @@
       <c r="H47" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -4316,6 +4310,8 @@
       <c r="H48" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -4342,6 +4338,8 @@
       <c r="H49" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
     </row>
     <row r="50" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
@@ -4368,7 +4366,9 @@
       <c r="H50" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="17" t="n">
+        <v>111643507</v>
+      </c>
       <c r="J50" s="16" t="n">
         <v>111643507</v>
       </c>
@@ -4401,6 +4401,8 @@
       <c r="H51" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -4427,6 +4429,7 @@
       <c r="H52" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I52" s="0"/>
       <c r="J52" s="19"/>
       <c r="K52" s="3" t="s">
         <v>195</v>
@@ -4457,6 +4460,8 @@
       <c r="H53" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -4483,6 +4488,8 @@
       <c r="H54" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -4509,6 +4516,8 @@
       <c r="H55" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -4535,6 +4544,8 @@
       <c r="H56" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -4561,6 +4572,8 @@
       <c r="H57" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -4587,6 +4600,8 @@
       <c r="H58" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -4613,6 +4628,8 @@
       <c r="H59" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -4639,6 +4656,8 @@
       <c r="H60" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -4665,6 +4684,8 @@
       <c r="H61" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -4691,6 +4712,8 @@
       <c r="H62" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -4717,6 +4740,8 @@
       <c r="H63" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -4743,6 +4768,8 @@
       <c r="H64" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -4769,6 +4796,8 @@
       <c r="H65" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
     </row>
     <row r="66" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
@@ -4795,7 +4824,9 @@
       <c r="H66" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I66" s="17"/>
+      <c r="I66" s="17" t="n">
+        <v>101938292</v>
+      </c>
       <c r="J66" s="16" t="n">
         <v>101938292</v>
       </c>
@@ -4828,6 +4859,8 @@
       <c r="H67" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -4854,6 +4887,8 @@
       <c r="H68" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -4880,6 +4915,8 @@
       <c r="H69" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -4906,6 +4943,8 @@
       <c r="H70" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -4932,6 +4971,8 @@
       <c r="H71" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -4958,6 +4999,8 @@
       <c r="H72" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -4984,6 +5027,8 @@
       <c r="H73" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I73" s="0"/>
+      <c r="J73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -5010,6 +5055,8 @@
       <c r="H74" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -5036,6 +5083,8 @@
       <c r="H75" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -5062,6 +5111,8 @@
       <c r="H76" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -5088,6 +5139,8 @@
       <c r="H77" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -5114,6 +5167,8 @@
       <c r="H78" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -5140,6 +5195,8 @@
       <c r="H79" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -5166,6 +5223,8 @@
       <c r="H80" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -5192,6 +5251,8 @@
       <c r="H81" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -5218,6 +5279,8 @@
       <c r="H82" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -5244,6 +5307,8 @@
       <c r="H83" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
     </row>
     <row r="84" s="21" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
@@ -5277,7 +5342,7 @@
         <v>199685857</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>302</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,20 +5356,22 @@
         <v>296</v>
       </c>
       <c r="D85" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="F85" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -5317,20 +5384,22 @@
         <v>296</v>
       </c>
       <c r="D86" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="F86" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I86" s="0"/>
+      <c r="J86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -5343,10 +5412,10 @@
         <v>296</v>
       </c>
       <c r="D87" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>310</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>298</v>
@@ -5357,794 +5426,855 @@
       <c r="H87" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I87" s="0"/>
+      <c r="J87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="E88" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="F88" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D89" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="F89" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I89" s="0"/>
+      <c r="J89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D90" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="F90" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I90" s="0"/>
+      <c r="J90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>46</v>
       </c>
       <c r="E91" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="G91" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I91" s="0"/>
+      <c r="J91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D92" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="E92" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="F92" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D93" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I93" s="0"/>
+      <c r="J93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="E94" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="F94" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I94" s="0"/>
+      <c r="J94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="D95" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="25"/>
+      <c r="J95" s="0"/>
+      <c r="K95" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="25"/>
-      <c r="K95" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="D96" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="F96" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="D97" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="D98" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>346</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="D99" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="F99" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="G99" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="E100" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="F100" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="D101" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="F101" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="G101" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="D102" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E102" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="D103" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="F103" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="D104" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="F104" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="D105" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="F105" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="E106" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="F106" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="G106" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="D107" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="F107" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="G107" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="D108" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="F108" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="D109" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="F109" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="G109" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I109" s="0"/>
+      <c r="J109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E110" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="G110" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="D111" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="F111" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I111" s="0"/>
+      <c r="J111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="E112" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I112" s="0"/>
+      <c r="J112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="D113" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="F113" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="G113" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="D114" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="F114" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="0"/>
+      <c r="J114" s="0"/>
+      <c r="K114" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="D115" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="G115" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I115" s="0"/>
+      <c r="J115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="D116" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="F116" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="G116" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I116" s="0"/>
+      <c r="J116" s="0"/>
     </row>
     <row r="117" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="C117" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>392</v>
-      </c>
       <c r="D117" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E117" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="F117" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="F117" s="14" t="s">
+      <c r="G117" s="14" t="s">
         <v>411</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>412</v>
       </c>
       <c r="H117" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I117" s="17"/>
+      <c r="I117" s="17" t="n">
+        <v>162158071</v>
+      </c>
       <c r="J117" s="16" t="n">
         <v>162158071</v>
       </c>
@@ -6154,1120 +6284,1202 @@
     </row>
     <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>167</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="G118" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I118" s="0"/>
+      <c r="J118" s="0"/>
     </row>
     <row r="119" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>415</v>
-      </c>
       <c r="D119" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="F119" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="G119" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>421</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I119" s="17"/>
+      <c r="I119" s="17" t="n">
+        <v>334589457</v>
+      </c>
       <c r="J119" s="16" t="n">
         <v>334589457</v>
       </c>
       <c r="K119" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="D120" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="F120" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="G120" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I120" s="0"/>
+      <c r="J120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="D121" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="F121" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="G121" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I121" s="0"/>
+      <c r="J121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E122" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="G122" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I122" s="0"/>
+      <c r="J122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="D123" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="F123" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="G123" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>126</v>
       </c>
       <c r="E124" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="G124" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E125" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="G125" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>116</v>
       </c>
       <c r="E126" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
+      <c r="K126" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="D127" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="F127" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="G127" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="D128" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E128" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="G128" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I128" s="0"/>
+      <c r="J128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="D129" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="F129" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G129" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I129" s="0"/>
+      <c r="J129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E130" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="G130" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I130" s="0"/>
+      <c r="J130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D131" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" s="0"/>
+      <c r="J131" s="0"/>
+      <c r="K131" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D132" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E132" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="G132" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I132" s="0"/>
+      <c r="J132" s="0"/>
     </row>
     <row r="133" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="C133" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C133" s="14" t="s">
-        <v>454</v>
-      </c>
       <c r="D133" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E133" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="F133" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="G133" s="14" t="s">
         <v>465</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>466</v>
       </c>
       <c r="H133" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I133" s="17"/>
+      <c r="I133" s="17" t="n">
+        <v>48586264</v>
+      </c>
       <c r="J133" s="16" t="n">
         <v>48586264</v>
       </c>
       <c r="K133" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D134" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="F134" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="0"/>
+      <c r="J134" s="0"/>
+      <c r="K134" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K134" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>258</v>
       </c>
       <c r="E135" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="G135" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I135" s="0"/>
+      <c r="J135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>261</v>
       </c>
       <c r="E136" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="G136" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E137" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="G137" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I137" s="0"/>
+      <c r="J137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E138" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="G138" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I138" s="0"/>
+      <c r="J138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="D139" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E139" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="F139" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="G139" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I139" s="0"/>
+      <c r="J139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E140" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="G140" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I140" s="0"/>
+      <c r="J140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="E141" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="F141" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="G141" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="0"/>
+      <c r="J141" s="0"/>
+      <c r="K141" s="0" t="s">
         <v>492</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K141" s="0" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="D142" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E142" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="F142" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="G142" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="D143" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="F143" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="G143" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I143" s="0"/>
+      <c r="J143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="D144" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E144" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="F144" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="G144" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="D145" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E145" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="F145" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="G145" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I145" s="0"/>
+      <c r="J145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>116</v>
       </c>
       <c r="E146" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="G146" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
+      <c r="K146" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="E147" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="F147" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="G147" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I147" s="0"/>
+      <c r="J147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="D148" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="E148" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="F148" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="G148" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I148" s="0"/>
+      <c r="J148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="D149" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E149" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="E149" s="0" t="s">
-        <v>519</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>233</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I150" s="0"/>
+      <c r="J150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="D151" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="E151" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="E151" s="0" t="s">
-        <v>522</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="D152" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="E152" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="E152" s="0" t="s">
-        <v>524</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="E153" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="F153" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="G153" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I153" s="0"/>
+      <c r="J153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E154" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="G154" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I154" s="0"/>
+      <c r="J154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="D155" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="E155" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="E155" s="0" t="s">
+      <c r="F155" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="G155" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I155" s="0"/>
+      <c r="J155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="D156" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="E156" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="F156" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="G156" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I156" s="0"/>
+      <c r="J156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D157" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D157" s="0" t="s">
+      <c r="E157" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="F157" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="G157" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="D158" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E158" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="F158" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I158" s="0"/>
+      <c r="J158" s="0"/>
     </row>
     <row r="159" s="21" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="B159" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="C159" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="D159" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="D159" s="21" t="s">
+      <c r="E159" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="F159" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="F159" s="22" t="s">
-        <v>551</v>
-      </c>
       <c r="G159" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H159" s="22" t="s">
         <v>17</v>
@@ -7279,967 +7491,1007 @@
         <v>117479325</v>
       </c>
       <c r="K159" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="D160" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E160" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="F160" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="D161" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E161" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="F161" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="G161" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="D162" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="E162" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="F162" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="G162" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I162" s="0"/>
+      <c r="J162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E163" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="G163" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="D164" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E164" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="F164" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="G164" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="E165" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="F165" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I166" s="0"/>
+      <c r="J166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="D167" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="E167" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="E167" s="0" t="s">
+      <c r="F167" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="G167" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E168" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="G168" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>167</v>
       </c>
       <c r="E169" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="G169" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="D170" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="E170" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="E170" s="0" t="s">
+      <c r="F170" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="G170" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I170" s="0"/>
+      <c r="J170" s="0"/>
+    </row>
+    <row r="171" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="5" t="s">
+      <c r="B171" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="F171" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F171" s="6" t="s">
-        <v>590</v>
-      </c>
       <c r="G171" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="28"/>
-      <c r="K171" s="5" t="s">
-        <v>591</v>
-      </c>
     </row>
     <row r="172" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="28"/>
-      <c r="K172" s="29" t="s">
+      <c r="K172" s="29"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F173" s="6" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="173" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>597</v>
-      </c>
       <c r="G173" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="K173" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="174" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K173" s="5"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="D174" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="175" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K174" s="5"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-      <c r="K175" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="176" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K175" s="5"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="D176" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="5" t="s">
-        <v>591</v>
-      </c>
+      <c r="K176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E177" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="G177" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I177" s="0"/>
+      <c r="J177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E178" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="D178" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>609</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I178" s="0"/>
+      <c r="J178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I179" s="0"/>
+      <c r="J179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I180" s="0"/>
+      <c r="J180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D181" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" s="0"/>
+      <c r="J181" s="0"/>
+      <c r="K181" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="182" s="31" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D182" s="31" t="s">
         <v>617</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E182" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J181" s="31"/>
-      <c r="K181" s="3" t="s">
+      <c r="F182" s="32" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="182" s="32" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="B182" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="C182" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="D182" s="32" t="s">
+      <c r="G182" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="E182" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="F182" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G182" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="H182" s="33" t="s">
+      <c r="H182" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I182" s="35" t="s">
-        <v>622</v>
-      </c>
-      <c r="J182" s="35" t="s">
-        <v>622</v>
-      </c>
-      <c r="K182" s="36"/>
+      <c r="I182" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="J182" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="K182" s="35"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D183" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="E183" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="G183" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" s="0"/>
+      <c r="J183" s="0"/>
+      <c r="K183" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K183" s="3" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C184" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D184" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="G184" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I184" s="0"/>
+      <c r="J184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>167</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I185" s="0"/>
+      <c r="J185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D186" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="G186" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I186" s="0"/>
+      <c r="J186" s="0"/>
       <c r="K186" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D187" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="G187" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I187" s="0"/>
+      <c r="J187" s="0"/>
       <c r="K187" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D189" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="E189" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D189" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="G189" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I189" s="0"/>
+      <c r="J189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I190" s="0"/>
+      <c r="J190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I191" s="0"/>
+      <c r="J191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>207</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I192" s="0"/>
+      <c r="J192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I193" s="0"/>
+      <c r="J193" s="0"/>
     </row>
     <row r="194" s="5" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>17</v>
@@ -8247,434 +8499,461 @@
       <c r="I194" s="28"/>
       <c r="J194" s="28"/>
       <c r="K194" s="8" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D195" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="E195" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="F195" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D195" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I195" s="0"/>
+      <c r="J195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I196" s="0"/>
+      <c r="J196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I197" s="0"/>
+      <c r="J197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D198" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" s="0"/>
+      <c r="J198" s="0"/>
+    </row>
+    <row r="199" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="D199" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="E199" s="31" t="s">
         <v>673</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="F199" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="G199" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="B199" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="C199" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="D199" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="E199" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="F199" s="33" t="s">
-        <v>672</v>
-      </c>
-      <c r="G199" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="H199" s="33" t="s">
+      <c r="H199" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I199" s="35" t="s">
-        <v>672</v>
-      </c>
-      <c r="J199" s="35" t="s">
-        <v>672</v>
-      </c>
-      <c r="K199" s="36"/>
+      <c r="I199" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="J199" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="K199" s="35"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I200" s="0"/>
+      <c r="J200" s="0"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I201" s="0"/>
+      <c r="J201" s="0"/>
       <c r="K201" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I202" s="0"/>
+      <c r="J202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I203" s="0"/>
+      <c r="J203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I204" s="0"/>
+      <c r="J204" s="0"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>233</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I205" s="0"/>
+      <c r="J205" s="0"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I206" s="0"/>
+      <c r="J206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D207" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="E207" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D207" s="0" t="s">
-        <v>701</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="G207" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I207" s="0"/>
+      <c r="J207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I208" s="0"/>
+      <c r="J208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J209" s="31"/>
+      <c r="I209" s="0"/>
+      <c r="J209" s="0"/>
       <c r="K209" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="210" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C210" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F210" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="D210" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>703</v>
-      </c>
       <c r="G210" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="H210" s="6" t="s">
         <v>17</v>
@@ -8682,213 +8961,227 @@
       <c r="I210" s="28"/>
       <c r="J210" s="28"/>
       <c r="K210" s="8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K211" s="37"/>
+      <c r="I211" s="0"/>
+      <c r="J211" s="0"/>
+      <c r="K211" s="36"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I212" s="0"/>
+      <c r="J212" s="0"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D213" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="E213" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="F213" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D213" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="G213" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I213" s="0"/>
+      <c r="J213" s="0"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I214" s="0"/>
+      <c r="J214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I215" s="0"/>
+      <c r="J215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>163</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I216" s="0"/>
+      <c r="J216" s="0"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I217" s="0"/>
+      <c r="J217" s="0"/>
     </row>
     <row r="218" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>17</v>
@@ -8896,253 +9189,271 @@
       <c r="I218" s="28"/>
       <c r="J218" s="28"/>
       <c r="K218" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D219" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="E219" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="F219" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D219" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>743</v>
-      </c>
       <c r="G219" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I219" s="0"/>
+      <c r="J219" s="0"/>
     </row>
     <row r="220" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D220" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="E220" s="37" t="s">
+        <v>742</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="G220" s="14" t="s">
         <v>744</v>
-      </c>
-      <c r="E220" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="F220" s="14" t="s">
-        <v>746</v>
-      </c>
-      <c r="G220" s="14" t="s">
-        <v>747</v>
       </c>
       <c r="H220" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I220" s="16"/>
+      <c r="I220" s="16" t="n">
+        <v>336776651</v>
+      </c>
       <c r="J220" s="16" t="n">
         <v>336776651</v>
       </c>
       <c r="K220" s="26" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I221" s="0"/>
+      <c r="J221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>258</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I222" s="0"/>
+      <c r="J222" s="0"/>
       <c r="K222" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I223" s="0"/>
+      <c r="J223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I224" s="0"/>
+      <c r="J224" s="0"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>163</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I225" s="0"/>
+      <c r="J225" s="0"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C226" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D226" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="D226" s="0" t="s">
-        <v>764</v>
-      </c>
       <c r="E226" s="0" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I226" s="0"/>
+      <c r="J226" s="0"/>
     </row>
     <row r="227" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H227" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I227" s="16"/>
+      <c r="I227" s="16" t="n">
+        <v>480200996</v>
+      </c>
       <c r="J227" s="17" t="n">
         <v>480200996</v>
       </c>
@@ -9152,364 +9463,394 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I228" s="0"/>
+      <c r="J228" s="0"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I229" s="0"/>
+      <c r="J229" s="0"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>233</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I230" s="0"/>
+      <c r="J230" s="0"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E231" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="F231" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>779</v>
-      </c>
       <c r="G231" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I231" s="0"/>
+      <c r="J231" s="0"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C232" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D232" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="D232" s="0" t="s">
-        <v>780</v>
-      </c>
       <c r="E232" s="0" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I232" s="0"/>
+      <c r="J232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I233" s="0"/>
+      <c r="J233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>233</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I234" s="0"/>
+      <c r="J234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I235" s="0"/>
+      <c r="J235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>167</v>
       </c>
       <c r="E236" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="0"/>
+      <c r="J236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="0"/>
+      <c r="J237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E238" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="F236" s="2" t="s">
+      <c r="F238" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="G236" s="2" t="s">
+      <c r="G238" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="H236" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D237" s="0" t="s">
+      <c r="H238" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="0"/>
+      <c r="J238" s="0"/>
+      <c r="K238" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="E237" s="0" t="s">
+    </row>
+    <row r="239" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="F237" s="2" t="s">
+      <c r="E239" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="G237" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K237" s="0" t="s">
+      <c r="F239" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="238" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B238" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C238" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D238" s="21" t="s">
-        <v>797</v>
-      </c>
-      <c r="E238" s="21" t="s">
-        <v>798</v>
-      </c>
-      <c r="F238" s="22" t="s">
-        <v>799</v>
-      </c>
-      <c r="G238" s="22" t="s">
-        <v>799</v>
-      </c>
-      <c r="H238" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I238" s="39" t="n">
+      <c r="G239" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I239" s="1" t="n">
         <v>274782</v>
       </c>
-      <c r="J238" s="39" t="n">
+      <c r="J239" s="1" t="n">
         <v>274782</v>
       </c>
-      <c r="K238" s="23" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K239" s="0" t="s">
-        <v>796</v>
+      <c r="K239" s="3" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I240" s="0"/>
+      <c r="J240" s="0"/>
+      <c r="K240" s="0" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D240" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K240" s="0" t="s">
-        <v>796</v>
+      <c r="D241" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I241" s="0"/>
+      <c r="J241" s="0"/>
+      <c r="K241" s="0" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K172" r:id="rId1" display="https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content|ids|timestamp|sha1|comment|flags|user|userid&#10;This query returns 5 revisions"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/test_wikiwho_simple.xlsx
+++ b/test_wikiwho_simple.xlsx
@@ -2663,7 +2663,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2776,15 +2776,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2806,6 +2818,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2896,7 +2912,7 @@
   <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K170" activeCellId="0" sqref="K170"/>
+      <selection pane="topLeft" activeCell="E168" activeCellId="0" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7805,178 +7821,178 @@
       <c r="I170" s="0"/>
       <c r="J170" s="0"/>
     </row>
-    <row r="171" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6" t="s">
+    <row r="171" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="F171" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="G171" s="6" t="s">
+      <c r="G171" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="H171" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I171" s="7"/>
-      <c r="J171" s="28"/>
-    </row>
-    <row r="172" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="5" t="s">
+      <c r="H171" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" s="30"/>
+      <c r="J171" s="31"/>
+    </row>
+    <row r="172" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="F172" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="G172" s="6" t="s">
+      <c r="G172" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="H172" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I172" s="7"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="29"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="5" t="s">
+      <c r="H172" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" s="30"/>
+      <c r="J172" s="31"/>
+      <c r="K172" s="32"/>
+    </row>
+    <row r="173" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="F173" s="6" t="s">
+      <c r="F173" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="G173" s="6" t="s">
+      <c r="G173" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="H173" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="5"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="5" t="s">
+      <c r="H173" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
+      <c r="K173" s="29"/>
+    </row>
+    <row r="174" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F174" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="G174" s="6" t="s">
+      <c r="G174" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="H174" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="5"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="5" t="s">
+      <c r="H174" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="29"/>
+    </row>
+    <row r="175" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F175" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="G175" s="6" t="s">
+      <c r="G175" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="H175" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="5"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="5" t="s">
+      <c r="H175" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="29"/>
+    </row>
+    <row r="176" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F176" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="G176" s="6" t="s">
+      <c r="G176" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="H176" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="5"/>
+      <c r="H176" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
+      <c r="K176" s="29"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
@@ -8121,38 +8137,38 @@
         <v>616</v>
       </c>
     </row>
-    <row r="182" s="31" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="31" t="s">
+    <row r="182" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="34" t="s">
         <v>601</v>
       </c>
-      <c r="B182" s="32" t="s">
+      <c r="B182" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="C182" s="32" t="s">
+      <c r="C182" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="D182" s="31" t="s">
+      <c r="D182" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="E182" s="33" t="s">
+      <c r="E182" s="36" t="s">
         <v>618</v>
       </c>
-      <c r="F182" s="32" t="s">
+      <c r="F182" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="G182" s="32" t="s">
+      <c r="G182" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="H182" s="32" t="s">
+      <c r="H182" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I182" s="34" t="s">
+      <c r="I182" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="J182" s="34" t="s">
+      <c r="J182" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="K182" s="35"/>
+      <c r="K182" s="38"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
@@ -8496,8 +8512,8 @@
       <c r="H194" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
+      <c r="I194" s="39"/>
+      <c r="J194" s="39"/>
       <c r="K194" s="8" t="s">
         <v>657</v>
       </c>
@@ -8614,38 +8630,38 @@
       <c r="I198" s="0"/>
       <c r="J198" s="0"/>
     </row>
-    <row r="199" s="31" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="31" t="s">
+    <row r="199" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="C199" s="32" t="s">
+      <c r="C199" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="D199" s="31" t="s">
+      <c r="D199" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="E199" s="31" t="s">
+      <c r="E199" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="F199" s="32" t="s">
+      <c r="F199" s="35" t="s">
         <v>669</v>
       </c>
-      <c r="G199" s="32" t="s">
+      <c r="G199" s="35" t="s">
         <v>674</v>
       </c>
-      <c r="H199" s="32" t="s">
+      <c r="H199" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I199" s="34" t="s">
+      <c r="I199" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="J199" s="34" t="s">
+      <c r="J199" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="K199" s="35"/>
+      <c r="K199" s="38"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
@@ -8958,8 +8974,8 @@
       <c r="H210" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I210" s="28"/>
-      <c r="J210" s="28"/>
+      <c r="I210" s="39"/>
+      <c r="J210" s="39"/>
       <c r="K210" s="8" t="s">
         <v>709</v>
       </c>
@@ -8991,7 +9007,7 @@
       </c>
       <c r="I211" s="0"/>
       <c r="J211" s="0"/>
-      <c r="K211" s="36"/>
+      <c r="K211" s="40"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
@@ -9186,8 +9202,8 @@
       <c r="H218" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I218" s="28"/>
-      <c r="J218" s="28"/>
+      <c r="I218" s="39"/>
+      <c r="J218" s="39"/>
       <c r="K218" s="8" t="s">
         <v>734</v>
       </c>
@@ -9233,7 +9249,7 @@
       <c r="D220" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="E220" s="37" t="s">
+      <c r="E220" s="41" t="s">
         <v>742</v>
       </c>
       <c r="F220" s="14" t="s">
